--- a/NodeSamples/测试节点/QmFLtTest.xlsx
+++ b/NodeSamples/测试节点/QmFLtTest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\GeoPyTool\DataFileSamples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\GeoPyTool\NodeSamples\测试节点\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC147DFE-D37F-4D41-BF4C-4C4176DDA8E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D06B01-0116-41D2-83F4-812C87D2ED41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17130" yWindow="3225" windowWidth="12150" windowHeight="21330" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="0" windowWidth="21600" windowHeight="16200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="220">
   <si>
     <t>﻿Suites</t>
   </si>
@@ -723,6 +723,14 @@
   </si>
   <si>
     <t>Color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nodes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grey</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1282,7 +1290,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E2" sqref="E2:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1339,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="H2" s="2">
         <v>50</v>
       </c>
       <c r="I2" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>183</v>
@@ -1377,19 +1385,19 @@
         <v>89</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="H3" s="2">
         <v>50</v>
       </c>
       <c r="I3" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>183</v>
@@ -1415,19 +1423,19 @@
         <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="H4" s="2">
         <v>50</v>
       </c>
       <c r="I4" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>183</v>
@@ -1453,19 +1461,19 @@
         <v>48.69</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="H5" s="2">
         <v>50</v>
       </c>
       <c r="I5" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>183</v>
@@ -1491,19 +1499,19 @@
         <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="H6" s="2">
         <v>50</v>
       </c>
       <c r="I6" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>183</v>
@@ -1529,19 +1537,19 @@
         <v>29.28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="H7" s="2">
         <v>50</v>
       </c>
       <c r="I7" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>183</v>
@@ -1567,19 +1575,19 @@
         <v>22.12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="H8" s="2">
         <v>50</v>
       </c>
       <c r="I8" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>183</v>
@@ -1605,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="H9" s="2">
         <v>50</v>
       </c>
       <c r="I9" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>183</v>
@@ -1643,19 +1651,19 @@
         <v>80</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="H10" s="2">
         <v>50</v>
       </c>
       <c r="I10" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>183</v>
@@ -1681,19 +1689,19 @@
         <v>67.180000000000007</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="H11" s="2">
         <v>50</v>
       </c>
       <c r="I11" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>183</v>
@@ -1719,19 +1727,19 @@
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="H12" s="2">
         <v>50</v>
       </c>
       <c r="I12" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>183</v>
@@ -1757,19 +1765,19 @@
         <v>18</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="H13" s="2">
         <v>50</v>
       </c>
       <c r="I13" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>183</v>
@@ -1789,19 +1797,19 @@
         <v>12.6</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="H14" s="2">
         <v>50</v>
       </c>
       <c r="I14" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>183</v>
@@ -1821,19 +1829,19 @@
         <v>73.45</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="H15" s="2">
         <v>50</v>
       </c>
       <c r="I15" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>183</v>
@@ -1853,19 +1861,19 @@
         <v>59</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="H16" s="2">
         <v>50</v>
       </c>
       <c r="I16" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>183</v>
@@ -1885,19 +1893,19 @@
         <v>49.66</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="H17" s="2">
         <v>50</v>
       </c>
       <c r="I17" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>183</v>
@@ -1917,19 +1925,19 @@
         <v>100</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="H18" s="2">
         <v>50</v>
       </c>
       <c r="I18" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>183</v>
@@ -1955,19 +1963,19 @@
         <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="H19" s="2">
         <v>50</v>
       </c>
       <c r="I19" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>183</v>
@@ -1993,19 +2001,19 @@
         <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="H20" s="2">
         <v>50</v>
       </c>
       <c r="I20" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>183</v>
